--- a/ranked_dataset.xlsx
+++ b/ranked_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\TAMU\CSCE_470\project\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE4AEB-434B-46CA-AD49-2F3AD7F0C3CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D26DDF-C388-4044-A443-F27AE33339F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
